--- a/codes/datagenerator/datagenerator/Data.xlsx
+++ b/codes/datagenerator/datagenerator/Data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>ColumnID</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>a: {[20,30],[30,40],[40,60], p: [0.3, 0.4, 0.3]}</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>mode = male</t>
+  </si>
+  <si>
+    <t>a: {[male, female]}, p: [0.6, 0.4]</t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,7 +555,7 @@
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -572,6 +584,40 @@
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
